--- a/exp_program/rspm_info.xlsx
+++ b/exp_program/rspm_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neurontutokyoacjp-my.sharepoint.com/personal/zheng_neuron_t_u-tokyo_ac_jp/Documents/Documents/zheng/mywork/intelligence_tRNS/docs/Gf_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neurontutokyoacjp-my.sharepoint.com/personal/zheng_neuron_t_u-tokyo_ac_jp/Documents/Documents/zheng/mywork/intelligence_tRNS/tRNS-Intelligence/exp_program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="11_F25DC773A252ABDACC104855899D62D05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ADD0A70-AB98-4A1A-B5EA-27DF0FF95D0C}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="11_F25DC773A252ABDACC104855899D62D05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{229CC774-B52B-46C3-98EC-F5EA3122A21B}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,6 +275,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -562,7 +566,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -576,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -590,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -604,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -617,35 +621,8 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -658,35 +635,8 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -699,35 +649,8 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -740,35 +663,8 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -782,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -795,32 +691,8 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -833,32 +705,8 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-      <c r="R11">
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>4</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -871,32 +719,8 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -909,32 +733,8 @@
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>4</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -948,7 +748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -961,29 +761,8 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -996,29 +775,8 @@
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>2</v>
-      </c>
-      <c r="R16">
-        <v>2</v>
-      </c>
-      <c r="S16">
-        <v>4</v>
-      </c>
-      <c r="T16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1031,29 +789,8 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>4</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>4</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1066,29 +803,8 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1102,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1115,35 +831,8 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>4</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20">
-        <v>4</v>
-      </c>
-      <c r="S20">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1156,35 +845,8 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1197,35 +859,8 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>3</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1238,35 +873,8 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1294,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1308,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1322,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1364,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>30</v>
       </c>

--- a/exp_program/rspm_info.xlsx
+++ b/exp_program/rspm_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neurontutokyoacjp-my.sharepoint.com/personal/zheng_neuron_t_u-tokyo_ac_jp/Documents/Documents/zheng/mywork/intelligence_tRNS/tRNS-Intelligence/exp_program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{A779DBC1-68C1-4011-ADF7-A77B2E99D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADCE57B9-D7F8-4BC7-B34E-7722CAD5B7F7}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A779DBC1-68C1-4011-ADF7-A77B2E99D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48C509D-FC0A-4519-9F1B-0526DFB1FC1C}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7905" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,6 +857,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1178,7 +1182,7 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A60"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1287,7 +1291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>2.4333333330000002</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3159,7 +3163,7 @@
         <v>2.6333333329999999</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>2.8333333330000001</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3887,7 +3891,7 @@
         <v>2.4666666670000001</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3991,7 +3995,7 @@
         <v>2.6666666669999999</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>2.1666666669999999</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>2.766666667</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>2.4333333330000002</v>
       </c>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -4927,7 +4931,7 @@
         <v>2.6333333329999999</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -5759,7 +5763,7 @@
         <v>2.733333333</v>
       </c>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>2.4666666670000001</v>
       </c>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>2.4666666670000001</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -6591,7 +6595,7 @@
         <v>2.5666666669999998</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -6903,7 +6907,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -7007,7 +7011,7 @@
         <v>2.3666666670000001</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -7562,9 +7566,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AH64" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="29">
+    <filterColumn colId="32">
       <filters>
-        <filter val="4"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/exp_program/rspm_info.xlsx
+++ b/exp_program/rspm_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neurontutokyoacjp-my.sharepoint.com/personal/zheng_neuron_t_u-tokyo_ac_jp/Documents/Documents/zheng/mywork/intelligence_tRNS/tRNS-Intelligence/exp_program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{A779DBC1-68C1-4011-ADF7-A77B2E99D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48C509D-FC0A-4519-9F1B-0526DFB1FC1C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{A779DBC1-68C1-4011-ADF7-A77B2E99D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B367E691-3A90-4376-A6DD-4E7C0EA8D5B8}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7905" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rspm_info" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1291,15 +1291,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1400,10 +1400,10 @@
         <v>35</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1504,10 +1504,10 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -1603,15 +1603,15 @@
         <v>2.5333333329999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1816,10 +1816,10 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2019,15 +2019,15 @@
         <v>2.5666666669999998</v>
       </c>
     </row>
-    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>41</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2128,10 +2128,10 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2232,10 +2232,10 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -2331,15 +2331,15 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2435,15 +2435,15 @@
         <v>2.9333333330000002</v>
       </c>
     </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
         <v>5</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2539,15 +2539,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>46</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2752,10 +2752,10 @@
         <v>48</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2851,15 +2851,15 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>49</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -2960,10 +2960,10 @@
         <v>50</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3064,10 +3064,10 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -3163,15 +3163,15 @@
         <v>2.6333333329999999</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
         <v>5</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3267,7 +3267,7 @@
         <v>2.8333333330000001</v>
       </c>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3371,15 +3371,15 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3480,10 +3480,10 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -3579,15 +3579,15 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -3688,10 +3688,10 @@
         <v>57</v>
       </c>
       <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
         <v>5</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3787,7 +3787,7 @@
         <v>2.4333333330000002</v>
       </c>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3896,10 +3896,10 @@
         <v>59</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -3995,15 +3995,15 @@
         <v>2.6666666669999999</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>60</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -4203,15 +4203,15 @@
         <v>2.1666666669999999</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>62</v>
       </c>
       <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
         <v>7</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4312,10 +4312,10 @@
         <v>63</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -4416,10 +4416,10 @@
         <v>64</v>
       </c>
       <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
         <v>5</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4515,15 +4515,15 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>65</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -4624,10 +4624,10 @@
         <v>66</v>
       </c>
       <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
         <v>7</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4723,15 +4723,15 @@
         <v>2.4333333330000002</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>67</v>
       </c>
       <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
         <v>6</v>
-      </c>
-      <c r="C35">
-        <v>8</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4832,10 +4832,10 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4931,15 +4931,15 @@
         <v>2.6333333329999999</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>69</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -5040,10 +5040,10 @@
         <v>70</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -5139,15 +5139,15 @@
         <v>2.4666666670000001</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>71</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -5243,15 +5243,15 @@
         <v>2.5666666669999998</v>
       </c>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>72</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5352,10 +5352,10 @@
         <v>73</v>
       </c>
       <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
         <v>7</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -5451,7 +5451,7 @@
         <v>2.5333333329999999</v>
       </c>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -5560,10 +5560,10 @@
         <v>75</v>
       </c>
       <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
         <v>6</v>
-      </c>
-      <c r="C43">
-        <v>8</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -5664,10 +5664,10 @@
         <v>76</v>
       </c>
       <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
         <v>5</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5763,15 +5763,15 @@
         <v>2.733333333</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>77</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -5872,10 +5872,10 @@
         <v>78</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -5976,10 +5976,10 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -6080,10 +6080,10 @@
         <v>80</v>
       </c>
       <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
         <v>5</v>
-      </c>
-      <c r="C48">
-        <v>8</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -6184,10 +6184,10 @@
         <v>81</v>
       </c>
       <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
         <v>6</v>
-      </c>
-      <c r="C49">
-        <v>8</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -6288,10 +6288,10 @@
         <v>82</v>
       </c>
       <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
         <v>7</v>
-      </c>
-      <c r="C50">
-        <v>8</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -6392,10 +6392,10 @@
         <v>83</v>
       </c>
       <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
         <v>6</v>
-      </c>
-      <c r="C51">
-        <v>8</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -6600,10 +6600,10 @@
         <v>85</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -6704,10 +6704,10 @@
         <v>86</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -6808,10 +6808,10 @@
         <v>87</v>
       </c>
       <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
         <v>5</v>
-      </c>
-      <c r="C55">
-        <v>8</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -6912,10 +6912,10 @@
         <v>88</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -7016,10 +7016,10 @@
         <v>89</v>
       </c>
       <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
         <v>6</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -7120,10 +7120,10 @@
         <v>90</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -7219,15 +7219,15 @@
         <v>2.766666667</v>
       </c>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>91</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -7323,15 +7323,15 @@
         <v>2.5666666669999998</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>92</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -7432,10 +7432,10 @@
         <v>93</v>
       </c>
       <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
         <v>5</v>
-      </c>
-      <c r="C61">
-        <v>8</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -7536,10 +7536,10 @@
         <v>94</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -7547,10 +7547,10 @@
         <v>95</v>
       </c>
       <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
         <v>5</v>
-      </c>
-      <c r="C63">
-        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
@@ -7558,17 +7558,17 @@
         <v>96</v>
       </c>
       <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
         <v>7</v>
-      </c>
-      <c r="C64">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AH64" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="32">
+    <filterColumn colId="13">
       <filters>
-        <filter val="3"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/exp_program/rspm_info.xlsx
+++ b/exp_program/rspm_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neurontutokyoacjp-my.sharepoint.com/personal/zheng_neuron_t_u-tokyo_ac_jp/Documents/Documents/zheng/mywork/intelligence_tRNS/tRNS-Intelligence/exp_program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{A779DBC1-68C1-4011-ADF7-A77B2E99D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B367E691-3A90-4376-A6DD-4E7C0EA8D5B8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{A779DBC1-68C1-4011-ADF7-A77B2E99D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CBFC54F-EAF5-40D1-BC77-8C08C4E2B702}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7905" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rspm_info" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1291,7 +1291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>2.5333333329999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>2.5666666669999998</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>2.4333333330000002</v>
       </c>
     </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>2.233333333</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>2.8333333330000001</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>2.4333333330000002</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>2.4666666670000001</v>
       </c>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>2.233333333</v>
       </c>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>2.5666666669999998</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>2.5333333329999999</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>2.733333333</v>
       </c>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>2.3666666670000001</v>
       </c>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>2.5333333329999999</v>
       </c>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -7566,9 +7566,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AH64" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
+    <filterColumn colId="9">
       <filters>
-        <filter val="2"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
